--- a/pythonBase/数据表.xlsx
+++ b/pythonBase/数据表.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="各景点天气" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="用户数据" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,17 +45,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -414,25 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,160 +434,83 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>景区</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>天气</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>气温</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>旅游指数</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>年龄</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>性别</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>三亚</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>多云</t>
-        </is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27/20℃</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>适宜</t>
+          <t>男</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>九寨沟</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>晴转多云</t>
-        </is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>34</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13/-2℃</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>适宜</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大理</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>晴</t>
-        </is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15/0℃</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>适宜</t>
+          <t>男</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>张家界</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>晴转小雨</t>
-        </is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17/6℃</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>适宜</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>桂林</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>多云转小雨</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21/11℃</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>适宜</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>晴</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3/-4℃</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>一般</t>
+          <t>女</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>